--- a/netforce_account_report/netforce_account_report/reports/tb_details.xlsx
+++ b/netforce_account_report/netforce_account_report/reports/tb_details.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Trial Balance Details</t>
   </si>
@@ -26,6 +26,21 @@
   </si>
   <si>
     <t>As at {{fmt_date date}}</t>
+  </si>
+  <si>
+    <t>{{#if track_name}}</t>
+  </si>
+  <si>
+    <t>Tracking: {{track_name}}</t>
+  </si>
+  <si>
+    <t>{{/if}}</t>
+  </si>
+  <si>
+    <t>{{#if track2_name}}</t>
+  </si>
+  <si>
+    <t>Tracking-2: {{track2_name}}</t>
   </si>
   <si>
     <t>Account Code</t>
@@ -303,13 +318,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -372,120 +387,211 @@
       <c r="K4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="12" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="E12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" s="9" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
+      <c r="G12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
+      <c r="H12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="I12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="J12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="K12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="9" t="s">
+    </row>
+    <row r="13" s="9" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="B14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="D14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="E14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="F14" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
+      <c r="G14" s="9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
+      <c r="H14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="I14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="J14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="K14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="12" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="12" t="s">
+    </row>
+    <row r="16" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="F16" s="12" t="s">
         <v>33</v>
       </c>
+      <c r="G16" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="9">
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A10:K10"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -500,7 +606,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1"/>
@@ -527,7 +633,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1"/>

--- a/netforce_account_report/netforce_account_report/reports/tb_details.xlsx
+++ b/netforce_account_report/netforce_account_report/reports/tb_details.xlsx
@@ -31,7 +31,7 @@
     <t>{{#if track_name}}</t>
   </si>
   <si>
-    <t>Tracking: {{track_name}}</t>
+    <t>Tracking-1: {{track_name}}</t>
   </si>
   <si>
     <t>{{/if}}</t>
@@ -324,7 +324,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
